--- a/4-DESARROLLO/CARGA.xlsx
+++ b/4-DESARROLLO/CARGA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EVALF\4-DESARROLLO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A68F478-2881-4905-BD91-DE307D468016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A266D57F-6C78-4767-BB00-097B4AEA2437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{9BACD001-97DF-4BDB-BBD9-497BAC38CD66}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{9BACD001-97DF-4BDB-BBD9-497BAC38CD66}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTOR" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="83">
   <si>
     <t>DNI</t>
   </si>
@@ -264,9 +264,6 @@
   </si>
   <si>
     <t>NUNCA, A VECES, SIEMPRE</t>
-  </si>
-  <si>
-    <t>NUNCA, A VECES SIEMPRE</t>
   </si>
   <si>
     <t>JOSE FERNANDO GALINDO SUAREZ</t>
@@ -709,13 +706,13 @@
         <v>19407970</v>
       </c>
       <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2">
+        <v>3147246</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="C2">
-        <v>3147246</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -723,13 +720,13 @@
         <v>19123456</v>
       </c>
       <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3">
+        <v>3147246</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="C3">
-        <v>3147246</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -745,7 +742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C02E86-6BAC-439D-AB6E-25BDF2E1ABBE}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -1314,8 +1311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB65A05B-B8A0-478F-A387-6169927FB7F8}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1377,7 +1374,7 @@
         <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:2">

--- a/4-DESARROLLO/CARGA.xlsx
+++ b/4-DESARROLLO/CARGA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EVALF\4-DESARROLLO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A266D57F-6C78-4767-BB00-097B4AEA2437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADD1AD4-4668-4AC0-8654-65057315FCC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{9BACD001-97DF-4BDB-BBD9-497BAC38CD66}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{9BACD001-97DF-4BDB-BBD9-497BAC38CD66}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTOR" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="85">
   <si>
     <t>DNI</t>
   </si>
@@ -276,13 +276,19 @@
   </si>
   <si>
     <t>uandrade@sena.edu.co</t>
+  </si>
+  <si>
+    <t>ELIZABETH DOMINGUEZ AUESCUM</t>
+  </si>
+  <si>
+    <t>edominguez@sena.edu.co</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,16 +320,28 @@
       <name val="Ubuntu Mono"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -346,19 +364,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -675,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DEFB7D2-47D4-478F-83CA-85E6AD2280EB}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -729,10 +765,25 @@
         <v>82</v>
       </c>
     </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4">
+        <v>5123456</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4">
+        <v>3147246</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{D27F59E6-B309-49C1-B11A-8E1043CBD1A7}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{96D9A446-B57E-4A06-BA26-4B95E6F6B1CE}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{CCB80D12-F3C5-47B1-9992-58A43062DADA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1311,7 +1362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB65A05B-B8A0-478F-A387-6169927FB7F8}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>

--- a/4-DESARROLLO/CARGA.xlsx
+++ b/4-DESARROLLO/CARGA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EVALF\4-DESARROLLO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADD1AD4-4668-4AC0-8654-65057315FCC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09969ED-AA4E-4395-980C-6D729B99C40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{9BACD001-97DF-4BDB-BBD9-497BAC38CD66}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{9BACD001-97DF-4BDB-BBD9-497BAC38CD66}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTOR" sheetId="1" r:id="rId1"/>
@@ -233,9 +233,6 @@
     <t>El instructor establece relaciones interpersonales cordiales, armoniosas y respetuosas.</t>
   </si>
   <si>
-    <t>El instructor incentiva al aprendiz a utilizar la plataforma Territorium en el desarrollo de las actividades de aprendizaje.</t>
-  </si>
-  <si>
     <t>El instructor le da a conocer el proyecto formativo, la planeación pedagógica y las guiás de aprendizaje.</t>
   </si>
   <si>
@@ -282,6 +279,9 @@
   </si>
   <si>
     <t>edominguez@sena.edu.co</t>
+  </si>
+  <si>
+    <t>El instructor incentiva al aprendiz a utilizar una plataforma LMS en el desarrollo de las actividades de aprendizaje.</t>
   </si>
 </sst>
 </file>
@@ -713,7 +713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DEFB7D2-47D4-478F-83CA-85E6AD2280EB}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -742,13 +742,13 @@
         <v>19407970</v>
       </c>
       <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2">
+        <v>3147246</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="C2">
-        <v>3147246</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -756,13 +756,13 @@
         <v>19123456</v>
       </c>
       <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3">
+        <v>3147246</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="C3">
-        <v>3147246</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -770,13 +770,13 @@
         <v>5123456</v>
       </c>
       <c r="B4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4">
+        <v>3147246</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="C4">
-        <v>3147246</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1362,8 +1362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB65A05B-B8A0-478F-A387-6169927FB7F8}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1374,10 +1374,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
         <v>74</v>
-      </c>
-      <c r="B1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1385,7 +1385,7 @@
         <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1393,7 +1393,7 @@
         <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1401,7 +1401,7 @@
         <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1409,7 +1409,7 @@
         <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1417,7 +1417,7 @@
         <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1425,55 +1425,55 @@
         <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
